--- a/DataDictionary_eng.xlsx
+++ b/DataDictionary_eng.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">browseNotes!$A$1:$B$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$H$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$F$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="305">
   <si>
     <t>id</t>
   </si>
@@ -811,27 +811,6 @@
     <t>The most recent month LC pulled credit for this loan</t>
   </si>
   <si>
-    <t>my notes</t>
-  </si>
-  <si>
-    <t>discard ( 2 categories most no, handful yes)</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">being late for 90 days </t>
-  </si>
-  <si>
-    <t>banckrupcy, judgement against you</t>
-  </si>
-  <si>
-    <t>cash inflows and cash out flows, risk at the moment for defaulting that is depended on other paynments</t>
-  </si>
-  <si>
     <t>coverage=income/payments  like dti</t>
   </si>
   <si>
@@ -844,90 +823,9 @@
     <t xml:space="preserve">target-leaked </t>
   </si>
   <si>
-    <t>total balance of credit card (toatl balance)</t>
-  </si>
-  <si>
-    <t>utilization=max cards balance / maximum credit line</t>
-  </si>
-  <si>
-    <t>60 riskier</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>not important</t>
-  </si>
-  <si>
-    <t>taget leak</t>
-  </si>
-  <si>
-    <t>simple relationship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probably related to default </t>
-  </si>
-  <si>
-    <t>discard (text)</t>
-  </si>
-  <si>
-    <t>?months</t>
-  </si>
-  <si>
-    <t>applied for a certain ammount of time</t>
-  </si>
-  <si>
-    <t>how much you got for the loan  - maybe less risky?</t>
-  </si>
-  <si>
-    <t>earlier payements - interst accrues, don't know if important</t>
-  </si>
-  <si>
-    <t>complicated - (could be a student with many debts)</t>
-  </si>
-  <si>
-    <t>related to age of loan, maybe divide by the age?</t>
-  </si>
-  <si>
-    <t>amount the collection agancy have recovered - target leaked</t>
-  </si>
-  <si>
-    <t>time dependant. LC is funding some - maybe I can find relationship with default?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time dependant - how much is left </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the fact that I am using </t>
-  </si>
-  <si>
-    <t xml:space="preserve">? </t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Available (or hidden) for investor pre-investment? ("No"-for post investment)</t>
-  </si>
-  <si>
-    <t>Y - but remove. Loan amount is enough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y </t>
-  </si>
-  <si>
-    <t>N - absent</t>
-  </si>
-  <si>
-    <t>? Probably redundant</t>
-  </si>
-  <si>
-    <t>N - traget leak</t>
-  </si>
-  <si>
     <t xml:space="preserve">Raw dataset </t>
   </si>
   <si>
@@ -943,153 +841,12 @@
     <t>replaced by median state income</t>
   </si>
   <si>
-    <t>﻿loan_amnt</t>
-  </si>
-  <si>
-    <t>1                              int_rate</t>
-  </si>
-  <si>
-    <t>2                           installment</t>
-  </si>
-  <si>
-    <t>3                                 grade</t>
-  </si>
-  <si>
-    <t>4                             sub_grade</t>
-  </si>
-  <si>
-    <t>8                        inq_last_6mths</t>
-  </si>
-  <si>
-    <t>9                              open_acc</t>
-  </si>
-  <si>
-    <t>10                              pub_rec</t>
-  </si>
-  <si>
-    <t>11                            revol_bal</t>
-  </si>
-  <si>
-    <t>12                           revol_util</t>
-  </si>
-  <si>
-    <t>13                            total_acc</t>
-  </si>
-  <si>
-    <t>14           collections_12_mths_ex_med</t>
-  </si>
-  <si>
-    <t>15                          policy_code</t>
-  </si>
-  <si>
-    <t>16                        Loan_response</t>
-  </si>
-  <si>
-    <t>17              home_ownership_MORTGAGE</t>
-  </si>
-  <si>
-    <t>20                      term_ 36 months</t>
-  </si>
-  <si>
     <t>same</t>
   </si>
   <si>
     <t>removed</t>
   </si>
   <si>
-    <t>﻿21                      term_ 60 months</t>
-  </si>
-  <si>
-    <t>22                is_inc_v_Not Verified</t>
-  </si>
-  <si>
-    <t>23             is_inc_v_Source Verified</t>
-  </si>
-  <si>
-    <t>24                    is_inc_v_Verified</t>
-  </si>
-  <si>
-    <t>25                          purpose_car</t>
-  </si>
-  <si>
-    <t>26                  purpose_credit_card</t>
-  </si>
-  <si>
-    <t>27           purpose_debt_consolidation</t>
-  </si>
-  <si>
-    <t>28             purpose_home_improvement</t>
-  </si>
-  <si>
-    <t>29                        purpose_house</t>
-  </si>
-  <si>
-    <t>30               purpose_major_purchase</t>
-  </si>
-  <si>
-    <t>31                      purpose_medical</t>
-  </si>
-  <si>
-    <t>32                       purpose_moving</t>
-  </si>
-  <si>
-    <t>33                        purpose_other</t>
-  </si>
-  <si>
-    <t>34             purpose_renewable_energy</t>
-  </si>
-  <si>
-    <t>35               purpose_small_business</t>
-  </si>
-  <si>
-    <t>36                     purpose_vacation</t>
-  </si>
-  <si>
-    <t>37       mths_since_last_record.eng_NaN</t>
-  </si>
-  <si>
-    <t>38       mths_since_last_record.eng_old</t>
-  </si>
-  <si>
-    <t>﻿mths_since_last_major_derog.eng_rec</t>
-  </si>
-  <si>
-    <t>42       mths_since_last_delinq.eng_NaN</t>
-  </si>
-  <si>
-    <t>43       mths_since_last_delinq.eng_old</t>
-  </si>
-  <si>
-    <t>44       mths_since_last_delinq.eng_rec</t>
-  </si>
-  <si>
-    <t>45                initial_list_status_f</t>
-  </si>
-  <si>
-    <t>46                initial_list_status_w</t>
-  </si>
-  <si>
-    <t>47  mths_since_last_major_derog.eng_old</t>
-  </si>
-  <si>
-    <t>48  mths_since_last_major_derog.eng_rec</t>
-  </si>
-  <si>
-    <t>49                   log_credit_yrs.eng</t>
-  </si>
-  <si>
-    <t>50                   annual_inc_log.eng</t>
-  </si>
-  <si>
-    <t>51         log_annual_inc_state_med.eng</t>
-  </si>
-  <si>
-    <t>52                 loan_amnt_to_inc.eng</t>
-  </si>
-  <si>
-    <t>53                            prncp.eng</t>
-  </si>
-  <si>
     <t xml:space="preserve"> log_annual_inc_state_med.eng</t>
   </si>
   <si>
@@ -1127,15 +884,88 @@
   </si>
   <si>
     <t xml:space="preserve">home_ownership_MORTGAGE /   home_ownership_OWN. /  home_ownership_RENT </t>
+  </si>
+  <si>
+    <t>transformed to numeric</t>
+  </si>
+  <si>
+    <t>transformed to dummie variable</t>
+  </si>
+  <si>
+    <t>is_inc_v_Not Verified / is_inc_v_Source Verified / is_inc_v_Verified</t>
+  </si>
+  <si>
+    <t>tuned to target variable</t>
+  </si>
+  <si>
+    <t>Loan Response</t>
+  </si>
+  <si>
+    <t>current =2 , default = 1, fully paid = 0</t>
+  </si>
+  <si>
+    <t>engineered</t>
+  </si>
+  <si>
+    <t>mths_since_last_record.eng_NaN /  mths_since_last_record.eng_old /mths_since_last_delinq.eng_rec</t>
+  </si>
+  <si>
+    <t>engineered and categorized</t>
+  </si>
+  <si>
+    <t>mths_since_last_delinq.eng_rec / mths_since_last_delinq.eng_old / mths_since_last_delinq.eng_NaN</t>
+  </si>
+  <si>
+    <t>mths_since_last_delinq.eng_rec /mths_since_last_delinq.eng_old / mths_since_last_delinq.eng_NaN</t>
+  </si>
+  <si>
+    <t>transformed to dummie variable, removed Wedding category</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / Purpose_house // Purpose_small_business / Purpose_vacation / Purpose_renewable_energy / Purpose_other / Purpose_moving / Purpose_medical / Purpose_major_purchase  / Purpose_debt_consolidation /Purpose_house / Purpose_credit_card/ Purpose_car</t>
+  </si>
+  <si>
+    <t>initial_list_status_f / initial_list_status_W</t>
+  </si>
+  <si>
+    <t>transformed to numeric rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  prncp.eng</t>
+  </si>
+  <si>
+    <t>loan_amnt_to_inc.eng</t>
+  </si>
+  <si>
+    <t>term_ 60 month / term_ 36 month</t>
+  </si>
+  <si>
+    <t>Description (original dictionary)</t>
+  </si>
+  <si>
+    <t>engineered features Description</t>
+  </si>
+  <si>
+    <t>Installement - (intallment*int_rate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log ratio of loan ammount by total amount </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1314,28 +1144,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1521,54 +1331,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1714,77 +1476,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="68">
+  <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1794,7 +1560,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1805,11 +1570,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1818,48 +1583,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="68">
+  <cellStyles count="72">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1901,6 +1636,8 @@
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1919,6 +1656,8 @@
     <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2232,11 +1971,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2244,1259 +1983,1037 @@
     <col min="1" max="1" width="29.5" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="93" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="93" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="B2" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="J2" s="29" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J3" s="29" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="B4" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="B5" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="J5" s="32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J6" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="K6"/>
-    </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="B8" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="27" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="B10" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J10" s="33" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="29" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="B12" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J12" s="27" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="B13" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="B14" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="B15" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="B16" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>359</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="B17" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="B18" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="E19" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="B19" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="E20" s="12">
-        <v>18</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="B20" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="E21" s="12">
-        <v>19</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="B21" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="33" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="E22" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="B22" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="E23" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="B23" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="E24" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="B24" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="J24" s="28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="E25" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="B25" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="E26" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="B26" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+    </row>
+    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="E27" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="B27" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+    </row>
+    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="E28" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="B28" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="E29" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="B29" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="E30" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="B30" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="40" t="s">
+    </row>
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="E31" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="B31" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="E32" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="B32" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="E33" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="B33" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="E34" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="28" t="s">
+      <c r="B34" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="C34" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="E34" s="11"/>
+      <c r="F34" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="E35" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="41" t="s">
+      <c r="B35" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="C35" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="K35"/>
-    </row>
-    <row r="36" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="9"/>
+      <c r="F35" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="E36" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="B36" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J36" s="37" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="11"/>
+      <c r="F36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="E37" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="B37" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J37" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="11"/>
-    </row>
-    <row r="38" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M37" s="9"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="E38" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="B38" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J38" s="37" t="s">
-        <v>276</v>
+      <c r="H38" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="E39" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="B39" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J39" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="E40" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="B40" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J40" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.2">
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="E41" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="B41" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J41" s="28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="E42" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="B42" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J42" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="E43" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="B43" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J43" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="E44" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="H44" s="2" t="s">
+      <c r="B44" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J44" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="K44" s="4" t="s">
+      <c r="H44" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="28" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="E45" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J45" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="42" t="s">
+      <c r="C46" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="E46" s="43" t="s">
-        <v>343</v>
-      </c>
-      <c r="F46" s="43"/>
-      <c r="G46" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H46" s="1" t="s">
+      <c r="E46" s="11"/>
+      <c r="F46" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J46" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="K46" s="4"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="42" t="s">
+      <c r="H46" s="4"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="E47" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="F47" s="43"/>
-      <c r="G47" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="B47" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J47" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="K47" s="4"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H47" s="4"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="E48" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="B48" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J48" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="K48" s="4"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H48" s="4"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="E49" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="B49" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J49" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="E50" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="B50" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J50" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="E51" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="B51" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J51" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="E52" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="B52" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J52" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="E53" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H53" s="1" t="s">
+      <c r="B53" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J53" s="35"/>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H54" s="2" t="s">
+      <c r="B54" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J54" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H55" s="2" t="s">
+      <c r="B55" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J55" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H56" s="2" t="s">
+      <c r="B56" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J56" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="H57" s="2" t="s">
+      <c r="B57" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J57" s="35"/>
-      <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G59" s="13"/>
-      <c r="H59" s="13" t="s">
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C59" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D59" t="s">
+        <v>304</v>
+      </c>
+      <c r="F59" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H62" t="s">
-        <v>287</v>
-      </c>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C60" s="11"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C61" s="11"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C63" s="11"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C64" s="11"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="11"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="11"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="11"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="11"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="11"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="11"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="11"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="11"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="11"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="11"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="11"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="11"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="11"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="11"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="11"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="11"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="11"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="11"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="11"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H57"/>
+  <autoFilter ref="A1:F57"/>
   <sortState ref="A2:B101">
     <sortCondition ref="A2:A101"/>
   </sortState>
@@ -3522,910 +3039,910 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B89">
@@ -4455,92 +3972,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B10"/>
